--- a/biology/Médecine/Syndrome_génital_oculocutané/Syndrome_génital_oculocutané.xlsx
+++ b/biology/Médecine/Syndrome_génital_oculocutané/Syndrome_génital_oculocutané.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_g%C3%A9nital_oculocutan%C3%A9</t>
+          <t>Syndrome_génital_oculocutané</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le syndrome génital oculocutané est une maladie rare identifiée en 2021 au Maroc par les équipes des Professeurs Ahmed Bouhouche et Mohammed Belmekki[1].
-Cette maladie génétique, identifiée dans une fratrie marocaine[2], est causée par une mutation du gène SDR42E identifié à cette occasion. Ce gène joue un rôle important dans la « régulation du métabolisme du cholestérol, dans le maintien du tissu conjonctif ainsi que de la maturation sexuelle chez l'homme »[1].
+Le syndrome génital oculocutané est une maladie rare identifiée en 2021 au Maroc par les équipes des Professeurs Ahmed Bouhouche et Mohammed Belmekki.
+Cette maladie génétique, identifiée dans une fratrie marocaine, est causée par une mutation du gène SDR42E identifié à cette occasion. Ce gène joue un rôle important dans la « régulation du métabolisme du cholestérol, dans le maintien du tissu conjonctif ainsi que de la maturation sexuelle chez l'homme ».
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_g%C3%A9nital_oculocutan%C3%A9</t>
+          <t>Syndrome_génital_oculocutané</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Manifestations cliniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie se manifeste notamment par un amincissement de la cornée.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_g%C3%A9nital_oculocutan%C3%A9</t>
+          <t>Syndrome_génital_oculocutané</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Perspectives thérapeutiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La découverte de ce gène ouvre des perspectives de recherche pour le traitement de cette maladie ou d'autres, associées à la baisse des hormones sexuelles avec l'âge :
 sècheresse oculaire ;
